--- a/doc/DB定義書_D1_mippy.xlsx
+++ b/doc/DB定義書_D1_mippy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB25ACEF-E423-4F1E-AC21-88D1FCF46904}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B47D69-615F-497F-ACAF-0C49A5CBA700}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13710" yWindow="3100" windowWidth="10950" windowHeight="9660" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -864,9 +864,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1245,9 +1243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1521,7 +1517,7 @@
       </c>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L23" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L15:L20" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v>USER_WEIGHT double (4),</v>
       </c>
     </row>
@@ -1755,7 +1751,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" ref="L15:L29" si="1">C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L24:L29" si="1">C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -1865,9 +1861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE6BB19-C015-4247-B6B1-1403902F940E}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2387,9 +2381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DEDCC7-D315-4984-94D8-6048CCA04A63}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
